--- a/2. Descuentos/Otros/03. descuentos DIC 02 al DIC 15.xlsx
+++ b/2. Descuentos/Otros/03. descuentos DIC 02 al DIC 15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FFF3E-5BE0-43A7-8371-51BB5C72CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB2B7A-5386-44C7-BFF1-140FEDEA7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
   <si>
     <t>Valor</t>
   </si>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -1283,9 +1283,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="3">
+        <f>+A26-1</f>
+        <v>45642</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4">
+        <v>50000</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
